--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM003.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10AEF3B-5998-40B9-BB6F-19FB2268125B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3BD4AF-BE5B-454F-A782-70EAC5C561DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="14400" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0.個金,1.企金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>資料年份</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -257,6 +253,11 @@
   </si>
   <si>
     <t>撥款還款金額比較月報工作檔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:個金
+1:企金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1008,21 +1009,21 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="32.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="26" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.125" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="2" max="2" width="32.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="52.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="26" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.109375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
@@ -1031,13 +1032,13 @@
         <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
       <c r="B2" s="48"/>
       <c r="C2" s="8" t="s">
@@ -1050,13 +1051,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="50"/>
       <c r="C3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>12</v>
@@ -1065,7 +1066,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="47" t="s">
         <v>11</v>
       </c>
@@ -1076,7 +1077,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1088,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1099,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1110,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="23" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24">
         <v>1</v>
       </c>
@@ -1150,10 +1151,10 @@
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>2</v>
       </c>
@@ -1161,7 +1162,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>13</v>
@@ -1172,15 +1173,15 @@
       <c r="F10" s="17"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>3</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>13</v>
@@ -1191,15 +1192,15 @@
       <c r="F11" s="17"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" s="32" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="32" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>4</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>13</v>
@@ -1212,15 +1213,15 @@
       </c>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="23" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>13</v>
@@ -1233,15 +1234,15 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="23" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>13</v>
@@ -1254,15 +1255,15 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" s="39" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="39" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>13</v>
@@ -1275,15 +1276,15 @@
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:7" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>8</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>13</v>
@@ -1296,15 +1297,15 @@
       </c>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="1:7" s="32" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="32" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>9</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>13</v>
@@ -1317,15 +1318,15 @@
       </c>
       <c r="G17" s="33"/>
     </row>
-    <row r="18" spans="1:7" s="32" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="32" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>10</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>13</v>
@@ -1338,15 +1339,15 @@
       </c>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:7" s="42" customFormat="1" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="42" customFormat="1" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24">
         <v>11</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>13</v>
@@ -1359,18 +1360,18 @@
       </c>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>12</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37" t="s">
@@ -1380,7 +1381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <v>13</v>
       </c>
@@ -1403,7 +1404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>14</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>15</v>
       </c>
@@ -1443,7 +1444,7 @@
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1477,15 +1478,15 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
     </row>
   </sheetData>
@@ -1514,33 +1515,33 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.875" customWidth="1"/>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="51.5" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="46" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
